--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="653">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,7 +474,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -498,10 +502,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -732,7 +732,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1250,7 +1250,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1347,7 +1347,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1429,19 +1429,6 @@
     <t>Ratio if required by leading code, see also 'Guidance - Laboratory Result'</t>
   </si>
   <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity</t>
   </si>
   <si>
@@ -1455,23 +1442,6 @@
     <t>Quantity if required by leading code, see also 'Guidance - Laboratory Result'</t>
   </si>
   <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
@@ -1502,25 +1472,6 @@
   <si>
     <t xml:space="preserve">Range {http://hl7.org/fhir/uv/ips/StructureDefinition/Range-uv-ips}
 </t>
-  </si>
-  <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
   </si>
   <si>
     <t>Observation.value[x]:valueTime</t>
@@ -2072,9 +2023,6 @@
     <t>Observation.component.value[x]:valueRatio</t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
     <t>Observation.component.value[x]:valueTime</t>
   </si>
   <si>
@@ -2087,10 +2035,11 @@
     <t>Observation.component.value[x]:valueQuantity</t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
     <t>Observation.component.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2437,15 +2386,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.12109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2456,28 +2405,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3658,7 +3607,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>145</v>
@@ -3684,13 +3633,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>138</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>83</v>
@@ -3712,13 +3661,13 @@
         <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3778,7 +3727,7 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>145</v>
@@ -6156,7 +6105,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>145</v>
@@ -6276,7 +6225,7 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>145</v>
@@ -6396,7 +6345,7 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>145</v>
@@ -6456,7 +6405,7 @@
         <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6516,7 +6465,7 @@
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>145</v>
@@ -10764,7 +10713,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -11617,7 +11566,7 @@
         <v>83</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>447</v>
@@ -11626,10 +11575,10 @@
         <v>448</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>436</v>
@@ -11690,39 +11639,39 @@
         <v>94</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>156</v>
+        <v>437</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>83</v>
@@ -11741,19 +11690,19 @@
         <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>436</v>
@@ -11814,39 +11763,39 @@
         <v>94</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>156</v>
+        <v>437</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>459</v>
+        <v>106</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>83</v>
@@ -11871,7 +11820,7 @@
         <v>309</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>434</v>
@@ -11909,7 +11858,7 @@
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11962,13 +11911,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -11990,7 +11939,7 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>433</v>
@@ -12086,13 +12035,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>83</v>
@@ -12111,19 +12060,19 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>436</v>
@@ -12184,39 +12133,39 @@
         <v>94</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>156</v>
+        <v>437</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>475</v>
+        <v>106</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>83</v>
@@ -12238,7 +12187,7 @@
         <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>433</v>
@@ -12334,13 +12283,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>83</v>
@@ -12458,13 +12407,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>431</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>83</v>
@@ -12486,7 +12435,7 @@
         <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>433</v>
@@ -12582,10 +12531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12611,16 +12560,16 @@
         <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>83</v>
@@ -12648,10 +12597,10 @@
         <v>314</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>83</v>
@@ -12669,7 +12618,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12678,7 +12627,7 @@
         <v>94</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>106</v>
@@ -12693,7 +12642,7 @@
         <v>137</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12704,14 +12653,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12733,16 +12682,16 @@
         <v>309</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12770,10 +12719,10 @@
         <v>314</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>83</v>
@@ -12791,7 +12740,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12809,27 +12758,27 @@
         <v>83</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12852,19 +12801,19 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -12913,7 +12862,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12934,10 +12883,10 @@
         <v>83</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
@@ -12948,10 +12897,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12977,13 +12926,13 @@
         <v>284</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -13009,13 +12958,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13033,7 +12982,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13051,27 +13000,27 @@
         <v>83</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13097,16 +13046,16 @@
         <v>284</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13135,7 +13084,7 @@
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13153,7 +13102,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13174,10 +13123,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13188,10 +13137,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13214,16 +13163,16 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13273,7 +13222,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13291,27 +13240,27 @@
         <v>83</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13334,16 +13283,16 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13393,7 +13342,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13411,27 +13360,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13454,19 +13403,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13515,7 +13464,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13527,7 +13476,7 @@
         <v>83</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>83</v>
@@ -13536,10 +13485,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13550,10 +13499,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13668,10 +13617,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13788,14 +13737,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13817,10 +13766,10 @@
         <v>139</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>169</v>
@@ -13875,7 +13824,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13910,10 +13859,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13936,13 +13885,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13993,7 +13942,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14002,7 +13951,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14014,10 +13963,10 @@
         <v>83</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14028,10 +13977,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14054,13 +14003,13 @@
         <v>83</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14111,7 +14060,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14120,7 +14069,7 @@
         <v>94</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>106</v>
@@ -14132,10 +14081,10 @@
         <v>83</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14146,10 +14095,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14175,16 +14124,16 @@
         <v>284</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14212,10 +14161,10 @@
         <v>118</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>83</v>
@@ -14233,7 +14182,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14251,13 +14200,13 @@
         <v>83</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14268,10 +14217,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14297,16 +14246,16 @@
         <v>284</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>83</v>
@@ -14331,13 +14280,13 @@
         <v>83</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14355,7 +14304,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14373,13 +14322,13 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14390,10 +14339,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14416,17 +14365,17 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14475,7 +14424,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14499,7 +14448,7 @@
         <v>83</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14510,10 +14459,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14539,10 +14488,10 @@
         <v>159</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14593,7 +14542,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14614,10 +14563,10 @@
         <v>83</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14628,10 +14577,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14654,16 +14603,16 @@
         <v>95</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14713,7 +14662,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14734,10 +14683,10 @@
         <v>83</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14748,10 +14697,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14774,16 +14723,16 @@
         <v>95</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14833,7 +14782,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14854,10 +14803,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14868,10 +14817,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14894,19 +14843,19 @@
         <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>83</v>
@@ -14955,7 +14904,7 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14976,10 +14925,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -14990,10 +14939,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15108,10 +15057,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15224,10 +15173,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>228</v>
@@ -15258,7 +15207,7 @@
         <v>230</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15318,7 +15267,7 @@
         <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>145</v>
@@ -15344,10 +15293,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15462,10 +15411,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15580,10 +15529,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15700,10 +15649,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15818,14 +15767,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15847,10 +15796,10 @@
         <v>139</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>169</v>
@@ -15905,7 +15854,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15940,10 +15889,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15969,13 +15918,13 @@
         <v>284</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>313</v>
@@ -16003,13 +15952,13 @@
         <v>83</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
@@ -16027,7 +15976,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>94</v>
@@ -16045,7 +15994,7 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>318</v>
@@ -16062,10 +16011,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16088,16 +16037,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>436</v>
@@ -16147,7 +16096,7 @@
         <v>143</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16165,7 +16114,7 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>439</v>
@@ -16182,10 +16131,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>443</v>
@@ -16213,13 +16162,13 @@
         <v>159</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>436</v>
@@ -16271,7 +16220,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16289,7 +16238,7 @@
         <v>83</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>439</v>
@@ -16306,13 +16255,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>83</v>
@@ -16334,16 +16283,16 @@
         <v>95</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>436</v>
@@ -16395,7 +16344,7 @@
         <v>83</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -16413,7 +16362,7 @@
         <v>83</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>439</v>
@@ -16430,13 +16379,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>83</v>
@@ -16455,19 +16404,19 @@
         <v>83</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>472</v>
+        <v>630</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>474</v>
+        <v>631</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>436</v>
@@ -16519,7 +16468,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16528,36 +16477,36 @@
         <v>94</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>475</v>
+        <v>106</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>83</v>
+        <v>632</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>446</v>
@@ -16579,19 +16528,19 @@
         <v>83</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>447</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>450</v>
+        <v>631</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>436</v>
@@ -16643,7 +16592,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16652,39 +16601,39 @@
         <v>94</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>83</v>
+        <v>632</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>83</v>
@@ -16706,16 +16655,16 @@
         <v>95</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>436</v>
@@ -16767,7 +16716,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
@@ -16785,7 +16734,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>439</v>
@@ -16802,13 +16751,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>83</v>
@@ -16833,13 +16782,13 @@
         <v>377</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>436</v>
@@ -16891,7 +16840,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16909,7 +16858,7 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>439</v>
@@ -16926,13 +16875,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>83</v>
@@ -16954,16 +16903,16 @@
         <v>95</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>436</v>
@@ -17015,7 +16964,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17033,7 +16982,7 @@
         <v>83</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>439</v>
@@ -17050,13 +16999,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>83</v>
@@ -17075,19 +17024,19 @@
         <v>83</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>458</v>
+        <v>631</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>436</v>
@@ -17139,7 +17088,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17148,39 +17097,39 @@
         <v>94</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>459</v>
+        <v>106</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>83</v>
+        <v>632</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>83</v>
@@ -17202,16 +17151,16 @@
         <v>95</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>284</v>
+        <v>642</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>434</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>436</v>
@@ -17243,7 +17192,7 @@
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>83</v>
@@ -17261,7 +17210,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17279,7 +17228,7 @@
         <v>83</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>439</v>
@@ -17296,10 +17245,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17325,16 +17274,16 @@
         <v>284</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>83</v>
@@ -17362,10 +17311,10 @@
         <v>314</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>83</v>
@@ -17383,7 +17332,7 @@
         <v>83</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -17392,7 +17341,7 @@
         <v>94</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>106</v>
@@ -17407,7 +17356,7 @@
         <v>137</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>83</v>
@@ -17418,14 +17367,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -17447,16 +17396,16 @@
         <v>284</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>83</v>
@@ -17484,10 +17433,10 @@
         <v>314</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>83</v>
@@ -17505,7 +17454,7 @@
         <v>83</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
@@ -17523,27 +17472,27 @@
         <v>83</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17569,16 +17518,16 @@
         <v>84</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>83</v>
@@ -17627,7 +17576,7 @@
         <v>83</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17648,10 +17597,10 @@
         <v>83</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-observation-results-laboratory-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
